--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value299.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value299.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.535829229398781</v>
+        <v>0.9228325486183167</v>
       </c>
       <c r="B1">
-        <v>1.567428162516896</v>
+        <v>1.594276547431946</v>
       </c>
       <c r="C1">
-        <v>1.714764151202069</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.499941340044847</v>
+        <v>2.489191770553589</v>
       </c>
       <c r="E1">
-        <v>1.169523929174357</v>
+        <v>1.371478915214539</v>
       </c>
     </row>
   </sheetData>
